--- a/tests/fixtures/verification/cases/semantic/00017/00017-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/semantic/00017/00017-wc_lang.xlsx
@@ -2979,7 +2979,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3211,7 +3211,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="23" t="n"/>
@@ -3430,7 +3430,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3823,7 +3823,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4137,7 +4137,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4416,7 +4416,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4660,7 +4660,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4929,7 +4929,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5256,7 +5256,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5482,7 +5482,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6021,7 +6021,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6351,7 +6351,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6524,7 +6524,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6868,7 +6868,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7273,7 +7273,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7567,7 +7567,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7946,7 +7946,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8125,7 +8125,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8312,7 +8312,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8533,7 +8533,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9043,7 +9043,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9461,7 +9461,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9766,7 +9766,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
